--- a/data/pravno/zakoni/Kazneni-zakon.pdf.hwaifs/tables/py/gmft/df.tables-1.xlsx
+++ b/data/pravno/zakoni/Kazneni-zakon.pdf.hwaifs/tables/py/gmft/df.tables-1.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,12 +484,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ako je vrijeme provedeno na liječenju kraće od trajanja izrečene kazne, sud se osuđenik uputi na izdržavanje ostatka kazne ili da se pusti na uvjetni otpust. upućuje na izdržavanje ostatka kazne, sud mu može odrediti ambulantno liječenje u zatvorskoj ustanovi. Odlučujući o puštanju na uvjetni otpust, sud će osobito uzeti u uspjeh osuđenikova liječenja, njegovo zdravstveno stanje, vrijeme provedeno na ostatak kazne što ga osuđenik nije izdržao. Ako utvrdi da je počinitelj i dalje okolinu, a da je za otklanjanje te opasnosti dovoljno njegovo liječenje na slobodi, počinitelju kojeg pušta na uvjetni otpust odrediti nastavak liječenja na slobodi</t>
+          <t>Ako je vrijeme provedeno na liječenju kraće od trajanja izrečene kazne, sud se osuđenik uputi na izdržavanje ostatka kazne ili da se pusti na uvjetni otpust. upućuje na izdržavanje ostatka kazne, sud mu može odrediti ambulantno liječenje zatvorskoj ustanovi. Odlučujući o puštanju na uvjetni otpust, sud će osobito uzeti u uspjeh osuđenikova liječenja, njegovo zdravstveno stanje, vrijeme provedeno na ostatak kazne što ga osuđenik nije izdržao. Ako utvrdi da je počinitelj i dalje okolinu, a da je za otklanjanje te opasnosti dovoljno njegovo liječenje na slobodi, počinitelju kojeg pušta na uvjetni otpust odrediti nastavak liječenja na slobodi</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>može odrediti Kad ga obzir liječenju i opasan za sud može sukladno</t>
+          <t>može odrediti Kad ga u obzir liječenju i opasan za sud može sukladno</t>
         </is>
       </c>
     </row>
@@ -540,10 +540,14 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Članak</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
+          <t>Članak 69. Sigurnosnu mjeru obveznog liječenja od ovisnosti sud će izreći počinitelju koji</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>je kazneno</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -551,12 +555,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>69. Sigurnosnu mjeru obveznog liječenja od ovisnosti sud će izreći počinitelju koji djelo počinio pod odlučujućim djelovanjem ovisnosti o alkoholu, drogi ili druge ovisnosti ako postoji opasnost da će zbog te ovisnosti u budućnosti počiniti teže djelo.</t>
+          <t>djelo počinio pod odlučujućim djelovanjem ovisnosti o alkoholu, drogi ili druge ovisnosti ako postoji opasnost da će zbog te ovisnosti u budućnosti počiniti teže djelo.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>je kazneno vrste kazneno</t>
+          <t>vrste kazneno</t>
         </is>
       </c>
     </row>
@@ -566,12 +570,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Mjera iz stavka 1. ovoga članka izrečena uz kaznu zatvora izvršava se u okviru sustava ili u zdravstvenoj ili drugoj specijaliziranoj ustanovi za liječenje ovisnosti zatvorskog sustava pod uvjetima određenim posebnim propisom. Mjera izrečena uz kaznu, rad za opće dobro i uvjetnu osudu izvršava se u zdravstvenoj ili drugoj ustanovi za otklanjanje ovisnosti izvan zatvorskog sustava, a može se, pod određenim posebnim propisom, kao i u slučaju iz članka 44. stavka 4. ovoga</t>
+          <t>Mjera iz stavka 1. ovoga članka izrečena uz kaznu zatvora izvršava se u okviru sustava ili u zdravstvenoj ili drugoj specijaliziranoj ustanovi za liječenje ovisnosti zatvorskog sustava pod uvjetima određenim posebnim propisom. Mjera izrečena kaznu, rad za opće dobro i uvjetnu osudu izvršava se u zdravstvenoj ili drugoj ustanovi za otklanjanje ovisnosti izvan zatvorskog sustava, a može se, pod određenim posebnim propisom, kao i u slučaju iz članka 44. stavka 4. ovoga izvršavati i u terapijskoj zajednici ako je takvo odvikavanje dostatno za otklanjanje Mjera iz stavka 1. ovog članka izvršava se uz nadzor nadležnog tijela za probaciju izrečena uz novčanu kaznu, rad za opće dobro i uvjetnu osudu.</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>zatvorskog izvan novčanu specijaliziranoj uvjetima Zakona,</t>
+          <t>zatvorskog izvan uz novčanu specijaliziranoj uvjetima Zakona, opasnosti. kada je</t>
         </is>
       </c>
     </row>
@@ -579,23 +583,8 @@
       <c r="A12" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>izvršavati i u terapijskoj zajednici ako je takvo odvikavanje dostatno za otklanjanje Mjera iz stavka 1. ovog članka izvršava se uz nadzor nadležnog tijela za probaciju izrečena uz novčanu kaznu, rad za opće dobro i uvjetnu osudu.</t>
-        </is>
-      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
-        <is>
-          <t>opasnosti. kada je</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr">
         <is>
           <t>25</t>
         </is>
